--- a/test.xlsx
+++ b/test.xlsx
@@ -456,157 +456,103 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>1990</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>336 387</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>2 100 000</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>8 500 000</t>
-        </is>
+      <c r="A2" t="n">
+        <v>1990</v>
+      </c>
+      <c r="B2" t="n">
+        <v>336387</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2100000</v>
+      </c>
+      <c r="D2" t="n">
+        <v>8500000</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>1995</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>939 400</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>3 200 000</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>18 600 000</t>
-        </is>
+      <c r="A3" t="n">
+        <v>1995</v>
+      </c>
+      <c r="B3" t="n">
+        <v>939400</v>
+      </c>
+      <c r="C3" t="n">
+        <v>3200000</v>
+      </c>
+      <c r="D3" t="n">
+        <v>18600000</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>1 560 000</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>2 900 000</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>26 000 000</t>
-        </is>
+      <c r="A4" t="n">
+        <v>2000</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1560000</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2900000</v>
+      </c>
+      <c r="D4" t="n">
+        <v>26000000</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>2005</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>1 830 000</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>2 500 000</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>28 500 000</t>
-        </is>
+      <c r="A5" t="n">
+        <v>2005</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1830000</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2500000</v>
+      </c>
+      <c r="D5" t="n">
+        <v>28500000</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>2010</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>1 370 000</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>2 200 000</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>30 800 000</t>
-        </is>
+      <c r="A6" t="n">
+        <v>2010</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1370000</v>
+      </c>
+      <c r="C6" t="n">
+        <v>2200000</v>
+      </c>
+      <c r="D6" t="n">
+        <v>30800000</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>1 030 000</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>1 900 000</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>34 400 000</t>
-        </is>
+      <c r="A7" t="n">
+        <v>2015</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1030000</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1900000</v>
+      </c>
+      <c r="D7" t="n">
+        <v>34400000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2021[39]</t>
+          <t>2021</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>650 000</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>1 500 000</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>38 400 000</t>
-        </is>
+      <c r="B8" t="n">
+        <v>650000</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="D8" t="n">
+        <v>38400000</v>
       </c>
     </row>
   </sheetData>
